--- a/releases/EveryWeekSummary/音频部【周报】1101-1107.xlsx
+++ b/releases/EveryWeekSummary/音频部【周报】1101-1107.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>项目名</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>完成度</t>
+  </si>
+  <si>
+    <t>L34</t>
+  </si>
+  <si>
+    <t>小小静</t>
+  </si>
+  <si>
+    <t>30%</t>
   </si>
   <si>
     <r>
@@ -65,12 +74,6 @@
   </si>
   <si>
     <t>80%</t>
-  </si>
-  <si>
-    <t>L22无间</t>
-  </si>
-  <si>
-    <t>小小静</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B3" sqref="B3"/>
@@ -529,8 +532,31 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="3" spans="1:27" customHeight="1" ht="24.95">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>444</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" customHeight="1" ht="24.95">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">D30</t>
@@ -549,42 +575,42 @@
           </r>
         </is>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>222</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>333</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>444</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" customHeight="1" ht="24.95">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" customHeight="1" ht="24.95">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -609,7 +635,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -663,49 +689,26 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" customHeight="1" ht="24.95">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-      <c r="C3">
-        <v>222</v>
-      </c>
-      <c r="D3">
-        <v>333</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>444</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" customHeight="1" ht="24.95">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/releases/EveryWeekSummary/音频部【周报】1101-1107.xlsx
+++ b/releases/EveryWeekSummary/音频部【周报】1101-1107.xlsx
@@ -44,13 +44,13 @@
     <t>完成度</t>
   </si>
   <si>
-    <t>L34</t>
+    <t>LH2神谕文明</t>
   </si>
   <si>
     <t>小小静</t>
   </si>
   <si>
-    <t>30%</t>
+    <t>20%</t>
   </si>
   <si>
     <r>
